--- a/biology/Médecine/Graphothérapie/Graphothérapie.xlsx
+++ b/biology/Médecine/Graphothérapie/Graphothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Graphoth%C3%A9rapie</t>
+          <t>Graphothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La graphothérapie se définit comme un accompagnement non paramédical du graphisme, de l’écriture, pour qu’elle soit lisible, rapide, soignée et plaisante. La graphothérapie s’adresse principalement aux enfants et aux adolescents, dont l’écriture est soit peu lisible, soit peu soignée. 
 Pour une rééducation paramédicale basée sur des preuves scientifiques et contrôlée par l'État (troubles DYS, neurodéveloppementaux), une prise en charge par ergothérapie et/ou psychomotricité est recommandée par la CPAM et la HAS.
